--- a/web_ces/indicadores/SFE-ESC2_out.xlsx
+++ b/web_ces/indicadores/SFE-ESC2_out.xlsx
@@ -19587,22 +19587,22 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F02731-0D74-47DB-8529-C2754DE72F3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E516F15B-7093-409A-AF0E-DE05C1EF2D6C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{664FD3DE-D558-4A7A-B159-0D8F7305A2E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBDC0FA9-C9C7-45B8-B826-BC4F7ED04DC5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{042978EA-0E6A-4077-BA99-EF814A65607C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F7FC4E-C58E-43DE-AD24-C04F81097034}"/>
 </file>